--- a/bom/BOM_XYHD9.xlsx
+++ b/bom/BOM_XYHD9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{799670A8-6AAA-43C2-8CF4-89BBDBE9D54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5518E34-59E7-4705-8CB1-F4110AA6A6B0}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{799670A8-6AAA-43C2-8CF4-89BBDBE9D54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CCD244B4-8B33-4297-BE26-CC3F96C2792F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="187">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>https://www.teknic.com/model-info/CPM-SDSK-2321S-RQN/?model_voltage=75</t>
+  </si>
+  <si>
+    <t>https://www.thingiverse.com/thing:4629715</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,9 +922,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -931,6 +931,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -966,20 +980,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3507,7 +3507,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF0D49FD-4D1A-4E49-9696-1CF24EAF4938}" name="Table1" displayName="Table1" ref="A1:K58" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF0D49FD-4D1A-4E49-9696-1CF24EAF4938}" name="Table1" displayName="Table1" ref="A1:K58" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:K58" xr:uid="{8E0CF99E-CFAA-4DE9-B7D1-84C573890D76}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K58">
     <sortCondition ref="B2:B58"/>
@@ -3854,7 +3854,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="91.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4139,7 +4139,7 @@
       <c r="J9" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="31" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5151,7 +5151,9 @@
       <c r="J45" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K45" s="16"/>
+      <c r="K45" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
@@ -5178,7 +5180,9 @@
       <c r="J46" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K46" s="16"/>
+      <c r="K46" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
@@ -5205,7 +5209,9 @@
       <c r="J47" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K47" s="16"/>
+      <c r="K47" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
@@ -5232,7 +5238,9 @@
       <c r="J48" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K48" s="16"/>
+      <c r="K48" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
@@ -5259,7 +5267,9 @@
       <c r="J49" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K49" s="16"/>
+      <c r="K49" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
@@ -5286,7 +5296,9 @@
       <c r="J50" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K50" s="16"/>
+      <c r="K50" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
@@ -5313,7 +5325,9 @@
       <c r="J51" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K51" s="16"/>
+      <c r="K51" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
@@ -5340,7 +5354,9 @@
       <c r="J52" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K52" s="16"/>
+      <c r="K52" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
@@ -5367,7 +5383,9 @@
       <c r="J53" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K53" s="16"/>
+      <c r="K53" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
@@ -5394,7 +5412,9 @@
       <c r="J54" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K54" s="16"/>
+      <c r="K54" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="55" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
@@ -5421,7 +5441,9 @@
       <c r="J55" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K55" s="31"/>
+      <c r="K55" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="56" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
@@ -5448,7 +5470,9 @@
       <c r="J56" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K56" s="31"/>
+      <c r="K56" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="57" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
@@ -5473,7 +5497,9 @@
       <c r="J57" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K57" s="31"/>
+      <c r="K57" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
@@ -5502,21 +5528,25 @@
       <c r="J58" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K58" s="16"/>
+      <c r="K58" s="31" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K26" r:id="rId1" xr:uid="{B8FDF678-413C-430F-8C9C-A28FB91E0EF3}"/>
     <hyperlink ref="K9" r:id="rId2" xr:uid="{099FADD8-A0FA-4B80-85A4-ABEEA26FDCC5}"/>
+    <hyperlink ref="K45" r:id="rId3" xr:uid="{B5422098-BDE4-484B-A09D-4A7B905A629B}"/>
+    <hyperlink ref="K46:K58" r:id="rId4" display="https://www.thingiverse.com/thing:4629715" xr:uid="{2B096A3F-C3A3-425B-8B92-8A62D985B06B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
   <webPublishItems count="1">
     <webPublishItem id="2337" divId="BOM_XYHD9_2337" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XYHD9.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XYHD9.xlsx
+++ b/bom/BOM_XYHD9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{799670A8-6AAA-43C2-8CF4-89BBDBE9D54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CCD244B4-8B33-4297-BE26-CC3F96C2792F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{799670A8-6AAA-43C2-8CF4-89BBDBE9D54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{585EEA63-82E3-434E-87F2-870A1CE8CACA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="188">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>https://www.thingiverse.com/thing:4629715</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,6 +927,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3854,7 +3860,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="91.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3963,7 +3969,9 @@
         <v>146</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="32" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -3992,7 +4000,9 @@
         <v>146</v>
       </c>
       <c r="J4" s="11"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="32" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -4021,7 +4031,9 @@
         <v>146</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="32" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -4170,7 +4182,9 @@
         <v>146</v>
       </c>
       <c r="J10" s="29"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="32" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
@@ -4199,7 +4213,9 @@
         <v>146</v>
       </c>
       <c r="J11" s="29"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="32" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
@@ -5539,14 +5555,18 @@
     <hyperlink ref="K9" r:id="rId2" xr:uid="{099FADD8-A0FA-4B80-85A4-ABEEA26FDCC5}"/>
     <hyperlink ref="K45" r:id="rId3" xr:uid="{B5422098-BDE4-484B-A09D-4A7B905A629B}"/>
     <hyperlink ref="K46:K58" r:id="rId4" display="https://www.thingiverse.com/thing:4629715" xr:uid="{2B096A3F-C3A3-425B-8B92-8A62D985B06B}"/>
+    <hyperlink ref="K3" r:id="rId5" display="https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{8FFFC45B-E65E-4307-B304-DC0A84974202}"/>
+    <hyperlink ref="K4:K5" r:id="rId6" display="https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{349BDB2F-263A-4E98-B6C8-5426BC0CE779}"/>
+    <hyperlink ref="K10" r:id="rId7" display="https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{08397B5F-36C3-445E-A190-76E081B0A1C0}"/>
+    <hyperlink ref="K11" r:id="rId8" display="https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{421B527E-38EC-4785-BF51-2D8DE12DE95E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId9"/>
   <webPublishItems count="1">
     <webPublishItem id="2337" divId="BOM_XYHD9_2337" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XYHD9.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XYHD9.xlsx
+++ b/bom/BOM_XYHD9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{799670A8-6AAA-43C2-8CF4-89BBDBE9D54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{585EEA63-82E3-434E-87F2-870A1CE8CACA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E606AA6C-8F5E-4E69-895E-230F3571C663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -472,9 +472,6 @@
     <t>*Length defined by Frame Calculator: https://miragec79.github.io/HevORT/framecalculator.html</t>
   </si>
   <si>
-    <t>MGN12 Block for Y axis</t>
-  </si>
-  <si>
     <t>Hardware</t>
   </si>
   <si>
@@ -610,6 +607,9 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
+  </si>
+  <si>
+    <t>MGN12 Block for Y axis and X axis</t>
   </si>
 </sst>
 </file>
@@ -3859,8 +3859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="91.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3934,10 +3934,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="16"/>
@@ -3957,7 +3957,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>6</v>
@@ -3966,11 +3966,11 @@
         <v>2</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3997,11 +3997,11 @@
         <v>3</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4016,10 +4016,10 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>6</v>
@@ -4028,11 +4028,11 @@
         <v>1</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4076,10 +4076,10 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>6</v>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -4105,10 +4105,10 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>6</v>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" s="16"/>
     </row>
@@ -4149,10 +4149,10 @@
         <v>135</v>
       </c>
       <c r="J9" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="31" t="s">
         <v>184</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4179,11 +4179,11 @@
         <v>4</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4210,11 +4210,11 @@
         <v>4</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4229,10 +4229,10 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>6</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" s="16"/>
     </row>
@@ -4258,10 +4258,10 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>6</v>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K13" s="16"/>
     </row>
@@ -4287,10 +4287,10 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>6</v>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K14" s="16"/>
     </row>
@@ -4316,10 +4316,10 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>6</v>
@@ -4328,7 +4328,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="16"/>
@@ -4354,7 +4354,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>141</v>
@@ -4377,13 +4377,13 @@
         <v>139</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>141</v>
@@ -4406,13 +4406,13 @@
         <v>138</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>137</v>
@@ -4500,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="16"/>
@@ -4510,7 +4510,7 @@
         <v>130</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>76</v>
@@ -4537,17 +4537,17 @@
         <v>130</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="10">
         <v>14</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>6</v>
@@ -4556,7 +4556,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="16"/>
@@ -4566,7 +4566,7 @@
         <v>130</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>73</v>
@@ -4593,17 +4593,17 @@
         <v>130</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="10">
         <v>23</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>6</v>
@@ -4612,10 +4612,10 @@
         <v>8</v>
       </c>
       <c r="I25" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="K25" s="16"/>
     </row>
@@ -4624,17 +4624,17 @@
         <v>130</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="10">
         <v>24</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>6</v>
@@ -4643,13 +4643,13 @@
         <v>24</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4657,7 +4657,7 @@
         <v>130</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>85</v>
@@ -4684,7 +4684,7 @@
         <v>130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>70</v>
@@ -4711,17 +4711,17 @@
         <v>130</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="10">
         <v>15</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>181</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>6</v>
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="26"/>
@@ -4740,7 +4740,7 @@
         <v>130</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>67</v>
@@ -4767,7 +4767,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>88</v>
@@ -4794,7 +4794,7 @@
         <v>130</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>12</v>
@@ -4821,7 +4821,7 @@
         <v>130</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>94</v>
@@ -4848,7 +4848,7 @@
         <v>130</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>108</v>
@@ -4875,7 +4875,7 @@
         <v>130</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>79</v>
@@ -4902,7 +4902,7 @@
         <v>130</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>41</v>
@@ -4929,7 +4929,7 @@
         <v>130</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>97</v>
@@ -4956,7 +4956,7 @@
         <v>130</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>91</v>
@@ -4983,7 +4983,7 @@
         <v>130</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>24</v>
@@ -5010,7 +5010,7 @@
         <v>130</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>38</v>
@@ -5037,7 +5037,7 @@
         <v>130</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>55</v>
@@ -5064,7 +5064,7 @@
         <v>130</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>44</v>
@@ -5091,7 +5091,7 @@
         <v>130</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>32</v>
@@ -5118,17 +5118,17 @@
         <v>130</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>6</v>
@@ -5137,7 +5137,7 @@
         <v>4</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="16"/>
@@ -5165,10 +5165,10 @@
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5194,10 +5194,10 @@
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5223,10 +5223,10 @@
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5252,10 +5252,10 @@
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K48" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5281,10 +5281,10 @@
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5310,10 +5310,10 @@
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K50" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5339,10 +5339,10 @@
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K51" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5368,10 +5368,10 @@
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K52" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5397,10 +5397,10 @@
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5426,10 +5426,10 @@
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K54" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5455,10 +5455,10 @@
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K55" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5484,10 +5484,10 @@
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K56" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13"/>
@@ -5511,10 +5511,10 @@
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5542,10 +5542,10 @@
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K58" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/bom/BOM_XYHD9.xlsx
+++ b/bom/BOM_XYHD9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E606AA6C-8F5E-4E69-895E-230F3571C663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313953F2-D51C-4813-AB4F-7CAA27F6038C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="202">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -606,10 +606,55 @@
     <t>https://www.thingiverse.com/thing:4629715</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
-  </si>
-  <si>
     <t>MGN12 Block for Y axis and X axis</t>
+  </si>
+  <si>
+    <t>1: Amazon (Link to Canada)
+2: AliExpress</t>
+  </si>
+  <si>
+    <t>1: https://www.amazon.ca/gp/product/B01MTKNWZB/ref=ppx_yo_dt_b_asin_image_o03_s00?ie=UTF8&amp;psc=1
+2: https://www.aliexpress.com/item/4000473863693.html?spm=a2g0s.9042311.0.0.46214c4dj2VePT</t>
+  </si>
+  <si>
+    <t>Specs: https://e3d-online.dozuki.com/Document/Nld1XpHUpijTF4Gy/Gates_Pulley_20T_9.pdf</t>
+  </si>
+  <si>
+    <t>Specs: https://e3d-online.dozuki.com/Document/awQSBj4am1DMESpY/Gates_T_Idler_9.pdf</t>
+  </si>
+  <si>
+    <t>Specs: https://e3d-online.dozuki.com/Document/xOq6j12tQyJ35Q5d/Gates_S_Idler_9.pdf</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33023133633.html?spm=a2g0s.9042311.0.0.27424c4doxVFvb</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33023279793.html?spm=a2g0s.9042311.0.0.27424c4doxVFvb</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33002873710.html?spm=a2g0s.9042311.0.0.79334c4dbGMssZ</t>
+  </si>
+  <si>
+    <t>RDC Official Store - AliExpress</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32856649040.html?spm=2114.12010612.8148356.71.2e8e17b83q00jq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33008007487.html?spm=a2g0s.9042311.0.0.27424c4dyaVcbb</t>
+  </si>
+  <si>
+    <t>GATES-LL-2GT gear synchronous belt, 9mm wide
+*Length defined by Frame Calculator: https://miragec79.github.io/HevORT/framecalculator.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32952396111.html?spm=a2g0s.9042311.0.0.27424c4dlCkvdt</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32856629143.html?spm=a2g0s.9042311.0.0.27424c4djK3sna</t>
   </si>
 </sst>
 </file>
@@ -833,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,8 +973,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3859,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="91.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3875,7 +3929,7 @@
     <col min="8" max="8" width="7.1796875" customWidth="1"/>
     <col min="9" max="9" width="55.1796875" customWidth="1"/>
     <col min="10" max="10" width="32.08984375" customWidth="1"/>
-    <col min="11" max="11" width="29.81640625" customWidth="1"/>
+    <col min="11" max="11" width="68.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.35">
@@ -3942,7 +3996,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>130</v>
       </c>
@@ -3968,12 +4022,14 @@
       <c r="I3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>130</v>
       </c>
@@ -3999,12 +4055,14 @@
       <c r="I4" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>130</v>
       </c>
@@ -4030,9 +4088,11 @@
       <c r="I5" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="32" t="s">
-        <v>186</v>
+      <c r="J5" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4061,8 +4121,12 @@
       <c r="I6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="16"/>
+      <c r="J6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -4084,14 +4148,18 @@
       <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="14">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15"/>
+      <c r="H7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="J7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="35" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -4113,14 +4181,18 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21"/>
+      <c r="H8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="J8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="35" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -4155,7 +4227,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>130</v>
       </c>
@@ -4181,12 +4253,14 @@
       <c r="I10" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>130</v>
       </c>
@@ -4212,9 +4286,11 @@
       <c r="I11" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32" t="s">
-        <v>186</v>
+      <c r="J11" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4240,11 +4316,15 @@
       <c r="H12" s="14">
         <v>4</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="33" t="s">
+        <v>191</v>
+      </c>
       <c r="J12" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="31" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
@@ -4269,11 +4349,15 @@
       <c r="H13" s="14">
         <v>6</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="33" t="s">
+        <v>190</v>
+      </c>
       <c r="J13" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="31" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
@@ -4298,11 +4382,15 @@
       <c r="H14" s="14">
         <v>2</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="34" t="s">
+        <v>189</v>
+      </c>
       <c r="J14" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="31" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
@@ -4330,8 +4418,12 @@
       <c r="I15" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="16"/>
+      <c r="J15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
@@ -4406,7 +4498,7 @@
         <v>138</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>6</v>
@@ -4446,8 +4538,12 @@
       <c r="I19" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="16"/>
+      <c r="J19" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
@@ -4474,7 +4570,9 @@
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="16" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
@@ -4502,8 +4600,12 @@
       <c r="I21" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="16"/>
+      <c r="J21" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
@@ -5555,18 +5657,25 @@
     <hyperlink ref="K9" r:id="rId2" xr:uid="{099FADD8-A0FA-4B80-85A4-ABEEA26FDCC5}"/>
     <hyperlink ref="K45" r:id="rId3" xr:uid="{B5422098-BDE4-484B-A09D-4A7B905A629B}"/>
     <hyperlink ref="K46:K58" r:id="rId4" display="https://www.thingiverse.com/thing:4629715" xr:uid="{2B096A3F-C3A3-425B-8B92-8A62D985B06B}"/>
-    <hyperlink ref="K3" r:id="rId5" display="https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{8FFFC45B-E65E-4307-B304-DC0A84974202}"/>
-    <hyperlink ref="K4:K5" r:id="rId6" display="https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{349BDB2F-263A-4E98-B6C8-5426BC0CE779}"/>
-    <hyperlink ref="K10" r:id="rId7" display="https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{08397B5F-36C3-445E-A190-76E081B0A1C0}"/>
-    <hyperlink ref="K11" r:id="rId8" display="https://www.aliexpress.com/item/4000473863693.html?spm=a2g0o.productlist.0.0.72d21ca09uGHX1&amp;algo_pvid=50f85f18-6d20-4cad-bfce-a7511da0fa20&amp;algo_expid=50f85f18-6d20-4cad-bfce-a7511da0fa20-3&amp;btsid=0bb0623a16032847999323012ef2d9&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{421B527E-38EC-4785-BF51-2D8DE12DE95E}"/>
+    <hyperlink ref="I13" r:id="rId5" display="https://e3d-online.dozuki.com/Document/awQSBj4am1DMESpY/Gates_T_Idler_9.pdf" xr:uid="{A2171C8E-8832-4A33-BA11-63CB257C1CD9}"/>
+    <hyperlink ref="I14" r:id="rId6" display="https://e3d-online.dozuki.com/Document/Nld1XpHUpijTF4Gy/Gates_Pulley_20T_9.pdf" xr:uid="{D27B518F-9140-4B5A-8827-9A58C0268BFA}"/>
+    <hyperlink ref="I12" r:id="rId7" display="https://e3d-online.dozuki.com/Document/xOq6j12tQyJ35Q5d/Gates_S_Idler_9.pdf" xr:uid="{925AECCF-97D9-4FBF-9CDD-18322B0185F2}"/>
+    <hyperlink ref="K12" r:id="rId8" xr:uid="{5CC291BE-FC72-48BE-8D6F-83581DD61989}"/>
+    <hyperlink ref="K13" r:id="rId9" xr:uid="{3A4D1415-F6B1-4E03-A50F-93FD113B11AB}"/>
+    <hyperlink ref="K14" r:id="rId10" xr:uid="{44139601-C453-4CBC-AB10-6F43C431610D}"/>
+    <hyperlink ref="K19" r:id="rId11" xr:uid="{8EDFBFBA-1E2D-4F38-883B-784601AE9EEB}"/>
+    <hyperlink ref="K21" r:id="rId12" xr:uid="{B559E311-A0FB-41ED-A8D8-649AADB8A323}"/>
+    <hyperlink ref="K7" r:id="rId13" xr:uid="{2A20D912-3199-48E3-B41F-0CFD3FAAB28E}"/>
+    <hyperlink ref="K8" r:id="rId14" xr:uid="{4A387C78-B4D3-4602-AE6B-3F3C7D33B79A}"/>
+    <hyperlink ref="K6" r:id="rId15" xr:uid="{304ED1CD-87E5-42A8-8049-345783B3FD84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId16"/>
   <webPublishItems count="1">
     <webPublishItem id="2337" divId="BOM_XYHD9_2337" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XYHD9.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XYHD9.xlsx
+++ b/bom/BOM_XYHD9.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313953F2-D51C-4813-AB4F-7CAA27F6038C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82553008-6011-4051-ADF5-A0464E1DCD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="204">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -655,6 +665,13 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/32856629143.html?spm=a2g0s.9042311.0.0.27424c4djK3sna</t>
+  </si>
+  <si>
+    <t>Included in 
+HDWKit_XYHD9</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -771,7 +788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,12 +1008,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -3567,13 +3613,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF0D49FD-4D1A-4E49-9696-1CF24EAF4938}" name="Table1" displayName="Table1" ref="A1:K58" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:K58" xr:uid="{8E0CF99E-CFAA-4DE9-B7D1-84C573890D76}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF0D49FD-4D1A-4E49-9696-1CF24EAF4938}" name="Table1" displayName="Table1" ref="A1:L58" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:L58" xr:uid="{8E0CF99E-CFAA-4DE9-B7D1-84C573890D76}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L58">
     <sortCondition ref="B2:B58"/>
     <sortCondition ref="E2:E58"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DD6EA1FA-CD16-4ABB-AC14-9BC2B1AD3E3F}" name="SubAssy"/>
     <tableColumn id="2" xr3:uid="{32E85A4C-F6DA-4779-9033-75BF22DF1DD7}" name="Category"/>
     <tableColumn id="3" xr3:uid="{3097A407-DD1A-42BE-87D8-DFFD3C8B8AC5}" name="Item"/>
@@ -3581,6 +3627,7 @@
     <tableColumn id="5" xr3:uid="{FC2F8486-4C6D-49F9-A1D6-8370BFF390FB}" name="Part Name"/>
     <tableColumn id="6" xr3:uid="{651FCA17-248F-45CA-AA02-3EB04566F137}" name="Part Description"/>
     <tableColumn id="7" xr3:uid="{878C3E15-57EE-40F7-9437-470A65FACD78}" name="Make/Buy"/>
+    <tableColumn id="13" xr3:uid="{CFC803A4-293C-4A12-9F8E-76426F845B56}" name="Included in _x000a_HDWKit_XYHD9" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{A3F48363-5810-4EB7-8A1E-2A51AE3B77D4}" name="QTY"/>
     <tableColumn id="9" xr3:uid="{2A455ED1-03F3-4D44-B322-85BAF5CA8EA3}" name="Comment"/>
     <tableColumn id="10" xr3:uid="{085D3260-2717-4ED6-BBCA-0095917E4A6D}" name="Vendor"/>
@@ -3911,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="91.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3926,13 +3973,14 @@
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" customWidth="1"/>
-    <col min="9" max="9" width="55.1796875" customWidth="1"/>
-    <col min="10" max="10" width="32.08984375" customWidth="1"/>
-    <col min="11" max="11" width="68.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" customWidth="1"/>
+    <col min="10" max="10" width="55.1796875" customWidth="1"/>
+    <col min="11" max="11" width="32.08984375" customWidth="1"/>
+    <col min="12" max="12" width="68.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -3954,20 +4002,23 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>130</v>
       </c>
@@ -3987,16 +4038,17 @@
       <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="16"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:11" ht="107" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>130</v>
       </c>
@@ -4016,20 +4068,23 @@
       <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="14">
         <v>2</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="109" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>130</v>
       </c>
@@ -4049,20 +4104,23 @@
       <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="14">
         <v>3</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="K4" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>130</v>
       </c>
@@ -4082,20 +4140,23 @@
       <c r="G5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="K5" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>130</v>
       </c>
@@ -4115,20 +4176,23 @@
       <c r="G6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="14">
         <v>4</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="L6" s="35" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>130</v>
       </c>
@@ -4148,20 +4212,21 @@
       <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="L7" s="35" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>130</v>
       </c>
@@ -4181,20 +4246,21 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="L8" s="35" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>130</v>
       </c>
@@ -4214,20 +4280,21 @@
       <c r="G9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13"/>
+      <c r="I9" s="14">
         <v>2</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="J9" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="L9" s="31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>130</v>
       </c>
@@ -4247,20 +4314,23 @@
       <c r="G10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="14">
         <v>4</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="K10" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="113" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>130</v>
       </c>
@@ -4280,20 +4350,23 @@
       <c r="G11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="K11" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="L11" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>130</v>
       </c>
@@ -4313,20 +4386,21 @@
       <c r="G12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13"/>
+      <c r="I12" s="14">
         <v>4</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="J12" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="K12" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="L12" s="31" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>130</v>
       </c>
@@ -4346,20 +4420,21 @@
       <c r="G13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="14">
-        <v>6</v>
-      </c>
-      <c r="I13" s="33" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="14">
+        <v>6</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="L13" s="31" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>130</v>
       </c>
@@ -4379,20 +4454,21 @@
       <c r="G14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13"/>
+      <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="J14" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="L14" s="31" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>130</v>
       </c>
@@ -4412,20 +4488,23 @@
       <c r="G15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="14">
         <v>2</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="J15" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="L15" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>130</v>
       </c>
@@ -4445,16 +4524,17 @@
       <c r="G16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="J16" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="16"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>130</v>
       </c>
@@ -4474,16 +4554,17 @@
       <c r="G17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="J17" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="26"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>130</v>
       </c>
@@ -4503,16 +4584,17 @@
       <c r="G18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13"/>
+      <c r="I18" s="14">
         <v>3</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="J18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>130</v>
       </c>
@@ -4532,20 +4614,23 @@
       <c r="G19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="14">
         <v>4</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="J19" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="K19" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="L19" s="31" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>130</v>
       </c>
@@ -4565,16 +4650,17 @@
       <c r="G20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13"/>
+      <c r="I20" s="14">
         <v>1</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="16" t="s">
+      <c r="J20" s="21"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>130</v>
       </c>
@@ -4594,20 +4680,21 @@
       <c r="G21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13"/>
+      <c r="I21" s="14">
         <v>2</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="J21" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="L21" s="31" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>130</v>
       </c>
@@ -4627,14 +4714,17 @@
       <c r="G22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="14">
-        <v>6</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="16"/>
+      <c r="H22" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" s="14">
+        <v>6</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>130</v>
       </c>
@@ -4654,16 +4744,19 @@
       <c r="G23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" s="14">
         <v>24</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="J23" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="16"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>130</v>
       </c>
@@ -4683,14 +4776,17 @@
       <c r="G24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="14">
         <v>4</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>130</v>
       </c>
@@ -4710,18 +4806,21 @@
       <c r="G25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="14">
         <v>8</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="J25" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="K25" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>130</v>
       </c>
@@ -4741,20 +4840,23 @@
       <c r="G26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" s="14">
         <v>24</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="J26" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="L26" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>130</v>
       </c>
@@ -4774,14 +4876,17 @@
       <c r="G27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I27" s="14">
         <v>4</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>130</v>
       </c>
@@ -4801,14 +4906,17 @@
       <c r="G28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="14">
-        <v>6</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="16"/>
+      <c r="H28" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" s="14">
+        <v>6</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>130</v>
       </c>
@@ -4828,16 +4936,19 @@
       <c r="G29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I29" s="25">
         <v>8</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="J29" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="26"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>130</v>
       </c>
@@ -4857,14 +4968,17 @@
       <c r="G30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I30" s="14">
         <v>2</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>130</v>
       </c>
@@ -4884,14 +4998,17 @@
       <c r="G31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I31" s="14">
         <v>2</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>130</v>
       </c>
@@ -4911,14 +5028,17 @@
       <c r="G32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="14">
         <v>18</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="16"/>
     </row>
-    <row r="33" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>130</v>
       </c>
@@ -4938,14 +5058,17 @@
       <c r="G33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="14">
         <v>5</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="16"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>130</v>
       </c>
@@ -4965,14 +5088,17 @@
       <c r="G34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" s="14">
         <v>12</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="16"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>130</v>
       </c>
@@ -4992,14 +5118,17 @@
       <c r="G35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35" s="14">
         <v>1</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="16"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="16"/>
     </row>
-    <row r="36" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>130</v>
       </c>
@@ -5019,14 +5148,17 @@
       <c r="G36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" s="14">
         <v>8</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="16"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="16"/>
     </row>
-    <row r="37" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>130</v>
       </c>
@@ -5046,14 +5178,17 @@
       <c r="G37" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37" s="14">
         <v>8</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="16"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="16"/>
     </row>
-    <row r="38" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>130</v>
       </c>
@@ -5073,14 +5208,17 @@
       <c r="G38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="14">
         <v>2</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="16"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="16"/>
     </row>
-    <row r="39" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>130</v>
       </c>
@@ -5100,14 +5238,17 @@
       <c r="G39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I39" s="14">
         <v>2</v>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="16"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="16"/>
     </row>
-    <row r="40" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>130</v>
       </c>
@@ -5127,14 +5268,17 @@
       <c r="G40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I40" s="14">
         <v>2</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="16"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="16"/>
     </row>
-    <row r="41" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>130</v>
       </c>
@@ -5154,14 +5298,17 @@
       <c r="G41" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="14">
-        <v>6</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="16"/>
+      <c r="H41" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" s="14">
+        <v>6</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="16"/>
     </row>
-    <row r="42" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>130</v>
       </c>
@@ -5181,14 +5328,17 @@
       <c r="G42" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="14">
         <v>25</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="16"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="16"/>
     </row>
-    <row r="43" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>130</v>
       </c>
@@ -5208,14 +5358,17 @@
       <c r="G43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" s="14">
         <v>13</v>
       </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="16"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="16"/>
     </row>
-    <row r="44" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>130</v>
       </c>
@@ -5235,16 +5388,19 @@
       <c r="G44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="14">
         <v>4</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="J44" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="16"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="16"/>
     </row>
-    <row r="45" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>130</v>
       </c>
@@ -5262,18 +5418,19 @@
       <c r="G45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13"/>
+      <c r="I45" s="14">
         <v>1</v>
       </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="15"/>
+      <c r="K45" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="L45" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>130</v>
       </c>
@@ -5291,18 +5448,19 @@
       <c r="G46" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13"/>
+      <c r="I46" s="14">
         <v>1</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="15"/>
+      <c r="K46" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="L46" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>130</v>
       </c>
@@ -5320,18 +5478,19 @@
       <c r="G47" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13"/>
+      <c r="I47" s="14">
         <v>1</v>
       </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="15"/>
+      <c r="K47" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K47" s="31" t="s">
+      <c r="L47" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>130</v>
       </c>
@@ -5349,18 +5508,19 @@
       <c r="G48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13"/>
+      <c r="I48" s="14">
         <v>1</v>
       </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="15"/>
+      <c r="K48" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K48" s="31" t="s">
+      <c r="L48" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>130</v>
       </c>
@@ -5378,18 +5538,19 @@
       <c r="G49" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13"/>
+      <c r="I49" s="14">
         <v>1</v>
       </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="15"/>
+      <c r="K49" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K49" s="31" t="s">
+      <c r="L49" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>130</v>
       </c>
@@ -5407,18 +5568,19 @@
       <c r="G50" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="13"/>
+      <c r="I50" s="14">
         <v>1</v>
       </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="15"/>
+      <c r="K50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K50" s="31" t="s">
+      <c r="L50" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>130</v>
       </c>
@@ -5436,18 +5598,19 @@
       <c r="G51" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="13"/>
+      <c r="I51" s="14">
         <v>1</v>
       </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="15"/>
+      <c r="K51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K51" s="31" t="s">
+      <c r="L51" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>130</v>
       </c>
@@ -5465,18 +5628,19 @@
       <c r="G52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="13"/>
+      <c r="I52" s="14">
         <v>1</v>
       </c>
-      <c r="I52" s="15"/>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="15"/>
+      <c r="K52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K52" s="31" t="s">
+      <c r="L52" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>130</v>
       </c>
@@ -5494,18 +5658,19 @@
       <c r="G53" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="13"/>
+      <c r="I53" s="14">
         <v>1</v>
       </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="15"/>
+      <c r="K53" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K53" s="31" t="s">
+      <c r="L53" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>130</v>
       </c>
@@ -5523,18 +5688,19 @@
       <c r="G54" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="13"/>
+      <c r="I54" s="14">
         <v>1</v>
       </c>
-      <c r="I54" s="15"/>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="15"/>
+      <c r="K54" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K54" s="31" t="s">
+      <c r="L54" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>130</v>
       </c>
@@ -5552,18 +5718,19 @@
       <c r="G55" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H55" s="13"/>
+      <c r="I55" s="30">
         <v>1</v>
       </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="21"/>
+      <c r="K55" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K55" s="31" t="s">
+      <c r="L55" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>130</v>
       </c>
@@ -5581,18 +5748,19 @@
       <c r="G56" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="13"/>
+      <c r="I56" s="30">
         <v>1</v>
       </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="21"/>
+      <c r="K56" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="L56" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>130</v>
       </c>
@@ -5608,18 +5776,19 @@
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="30">
+      <c r="H57" s="13"/>
+      <c r="I57" s="30">
         <v>1</v>
       </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="21"/>
+      <c r="K57" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K57" s="31" t="s">
+      <c r="L57" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>130</v>
       </c>
@@ -5639,35 +5808,36 @@
       <c r="G58" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13"/>
+      <c r="I58" s="14">
         <v>1</v>
       </c>
-      <c r="I58" s="15"/>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="15"/>
+      <c r="K58" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="K58" s="31" t="s">
+      <c r="L58" s="31" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K26" r:id="rId1" xr:uid="{B8FDF678-413C-430F-8C9C-A28FB91E0EF3}"/>
-    <hyperlink ref="K9" r:id="rId2" xr:uid="{099FADD8-A0FA-4B80-85A4-ABEEA26FDCC5}"/>
-    <hyperlink ref="K45" r:id="rId3" xr:uid="{B5422098-BDE4-484B-A09D-4A7B905A629B}"/>
-    <hyperlink ref="K46:K58" r:id="rId4" display="https://www.thingiverse.com/thing:4629715" xr:uid="{2B096A3F-C3A3-425B-8B92-8A62D985B06B}"/>
-    <hyperlink ref="I13" r:id="rId5" display="https://e3d-online.dozuki.com/Document/awQSBj4am1DMESpY/Gates_T_Idler_9.pdf" xr:uid="{A2171C8E-8832-4A33-BA11-63CB257C1CD9}"/>
-    <hyperlink ref="I14" r:id="rId6" display="https://e3d-online.dozuki.com/Document/Nld1XpHUpijTF4Gy/Gates_Pulley_20T_9.pdf" xr:uid="{D27B518F-9140-4B5A-8827-9A58C0268BFA}"/>
-    <hyperlink ref="I12" r:id="rId7" display="https://e3d-online.dozuki.com/Document/xOq6j12tQyJ35Q5d/Gates_S_Idler_9.pdf" xr:uid="{925AECCF-97D9-4FBF-9CDD-18322B0185F2}"/>
-    <hyperlink ref="K12" r:id="rId8" xr:uid="{5CC291BE-FC72-48BE-8D6F-83581DD61989}"/>
-    <hyperlink ref="K13" r:id="rId9" xr:uid="{3A4D1415-F6B1-4E03-A50F-93FD113B11AB}"/>
-    <hyperlink ref="K14" r:id="rId10" xr:uid="{44139601-C453-4CBC-AB10-6F43C431610D}"/>
-    <hyperlink ref="K19" r:id="rId11" xr:uid="{8EDFBFBA-1E2D-4F38-883B-784601AE9EEB}"/>
-    <hyperlink ref="K21" r:id="rId12" xr:uid="{B559E311-A0FB-41ED-A8D8-649AADB8A323}"/>
-    <hyperlink ref="K7" r:id="rId13" xr:uid="{2A20D912-3199-48E3-B41F-0CFD3FAAB28E}"/>
-    <hyperlink ref="K8" r:id="rId14" xr:uid="{4A387C78-B4D3-4602-AE6B-3F3C7D33B79A}"/>
-    <hyperlink ref="K6" r:id="rId15" xr:uid="{304ED1CD-87E5-42A8-8049-345783B3FD84}"/>
+    <hyperlink ref="L26" r:id="rId1" xr:uid="{B8FDF678-413C-430F-8C9C-A28FB91E0EF3}"/>
+    <hyperlink ref="L9" r:id="rId2" xr:uid="{099FADD8-A0FA-4B80-85A4-ABEEA26FDCC5}"/>
+    <hyperlink ref="L45" r:id="rId3" xr:uid="{B5422098-BDE4-484B-A09D-4A7B905A629B}"/>
+    <hyperlink ref="L46:L58" r:id="rId4" display="https://www.thingiverse.com/thing:4629715" xr:uid="{2B096A3F-C3A3-425B-8B92-8A62D985B06B}"/>
+    <hyperlink ref="J13" r:id="rId5" display="https://e3d-online.dozuki.com/Document/awQSBj4am1DMESpY/Gates_T_Idler_9.pdf" xr:uid="{A2171C8E-8832-4A33-BA11-63CB257C1CD9}"/>
+    <hyperlink ref="J14" r:id="rId6" display="https://e3d-online.dozuki.com/Document/Nld1XpHUpijTF4Gy/Gates_Pulley_20T_9.pdf" xr:uid="{D27B518F-9140-4B5A-8827-9A58C0268BFA}"/>
+    <hyperlink ref="J12" r:id="rId7" display="https://e3d-online.dozuki.com/Document/xOq6j12tQyJ35Q5d/Gates_S_Idler_9.pdf" xr:uid="{925AECCF-97D9-4FBF-9CDD-18322B0185F2}"/>
+    <hyperlink ref="L12" r:id="rId8" xr:uid="{5CC291BE-FC72-48BE-8D6F-83581DD61989}"/>
+    <hyperlink ref="L13" r:id="rId9" xr:uid="{3A4D1415-F6B1-4E03-A50F-93FD113B11AB}"/>
+    <hyperlink ref="L14" r:id="rId10" xr:uid="{44139601-C453-4CBC-AB10-6F43C431610D}"/>
+    <hyperlink ref="L19" r:id="rId11" xr:uid="{8EDFBFBA-1E2D-4F38-883B-784601AE9EEB}"/>
+    <hyperlink ref="L21" r:id="rId12" xr:uid="{B559E311-A0FB-41ED-A8D8-649AADB8A323}"/>
+    <hyperlink ref="L7" r:id="rId13" xr:uid="{2A20D912-3199-48E3-B41F-0CFD3FAAB28E}"/>
+    <hyperlink ref="L8" r:id="rId14" xr:uid="{4A387C78-B4D3-4602-AE6B-3F3C7D33B79A}"/>
+    <hyperlink ref="L6" r:id="rId15" xr:uid="{304ED1CD-87E5-42A8-8049-345783B3FD84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId16"/>

--- a/bom/BOM_XYHD9.xlsx
+++ b/bom/BOM_XYHD9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82553008-6011-4051-ADF5-A0464E1DCD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269ECD3A-D62D-4280-BA93-CDE975CD40B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="156">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -47,370 +47,208 @@
     <t>Vendor URL</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Buy</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>CPM-_ _ _ _ - 2321_-Q_</t>
   </si>
   <si>
     <t>Motor, Servo - Nema 23</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>M5_HexNut_94150A340</t>
   </si>
   <si>
     <t>Nut, Hex - M5</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Ruland_SpiderCoupling_6.35mm-5mm</t>
   </si>
   <si>
     <t>SpiderCoupling</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Bearing_625-2RS_6153K69</t>
   </si>
   <si>
     <t>Bearing, 625-2RS</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>HD_BeltBinderLH_Body</t>
   </si>
   <si>
     <t>Make</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>M5X25_CapScrew_92290A252</t>
   </si>
   <si>
     <t>Screw, Cap - M5x25mm</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>MR115ZZ_Bearing_7804K107</t>
   </si>
   <si>
     <t>Bearing, 5x11x4mm</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>5mmX24mm Shaft v1</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>M6X14_ButtonHeadScrew_92095A227</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M6X14mm</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>5mmX60mm Shaft v1</t>
   </si>
   <si>
     <t>Shaft - 5X60mm</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>M5X45_CapScrew_91290A260</t>
   </si>
   <si>
     <t>Screw, Cap - M5X45mm</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>M5X16_CapScrew_91290A232</t>
   </si>
   <si>
     <t>Screw, Cap - M5X16mm</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>M6_TSlot_Nut</t>
   </si>
   <si>
     <t>Nut, T-Slot - M6 for 3030 profile</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Dowel_Pin_5mmX40mm</t>
   </si>
   <si>
     <t>Pin, Dowel - 5x40mm</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>HD_MotorMount_LH_Body</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>HD_MotorCover_LH_Body</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>M5X80_CapScrew_91290A276</t>
   </si>
   <si>
     <t>Screw, Cap - M5X80mm</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>HD_YCarriage_LH_LowerBody</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>HD_YCarriage_LH_UpperBody</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>M4_Nut_94150A335</t>
   </si>
   <si>
     <t>Nut, Hex - M4</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>M3X6_CapScrew_92290A111</t>
   </si>
   <si>
     <t>Screw, Cap - M3X6mm</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>M3X12_CapScrew_92290A117</t>
   </si>
   <si>
     <t>Screw, Cap - M3X12mm</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>M3_Nut_94150A325</t>
   </si>
   <si>
     <t>Nut, Hex - M3</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>M5X14_ButtonHeadScrew_91239A230</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M5X14mm</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Dowel_Pin_5mmX30mm</t>
   </si>
   <si>
     <t>Pin, Dowel - 5x30mm</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>M3X40_CapScrew_92290A128</t>
   </si>
   <si>
     <t>Screw, Cap - M3X40mm</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>M4X35_CapScrew_91290A182</t>
   </si>
   <si>
     <t>Screw, Cap - M4X35mm</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>M5X25_ButtonHeadScrew_91239A234</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M5X25mm</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>M5X10_ButtonHeadScrew_97763A820</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M5X10mm</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>M5X2020_T-Nut_91239A224</t>
   </si>
   <si>
     <t>Nut, T-Slot - M5 for 2020 profile</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>2020 Aluminum Extrusion Profile v1</t>
   </si>
   <si>
     <t>X Cross Member 2020</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>Opto endstop PM</t>
   </si>
   <si>
     <t>Optical End-Stop</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>HD_PulleyMountFL_Body</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>M5X12_ButtonHeadScrew_91239A228</t>
-  </si>
-  <si>
-    <t>Screw, ButtonHead - M5X12mm</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>HevORT LOGO_Small_Grey</t>
   </si>
   <si>
     <t>HevORT Logo, Small</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>HDBeltBinderRH_Body</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>HD_MotorCover_RH_Body</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>HD_YCarriage_RH_LowerBody</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>HD_YCarriage_RH_UpperBody</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>HD_PulleyMountFR_Body</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
   </si>
   <si>
     <t>HD_XYFlag_RH</t>
@@ -610,9 +448,6 @@
     <t>ClearPath by Teknic</t>
   </si>
   <si>
-    <t>https://www.teknic.com/model-info/CPM-SDSK-2321S-RQN/?model_voltage=75</t>
-  </si>
-  <si>
     <t>https://www.thingiverse.com/thing:4629715</t>
   </si>
   <si>
@@ -672,13 +507,39 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEMA17
+E3D_High_Torque_48mm
+LDO 60mm 0.9
+</t>
+  </si>
+  <si>
+    <t>Stepper Motor - NEMA17X48mm</t>
+  </si>
+  <si>
+    <t>High Output NEMA 17 0.9 degree can be used whith adapter plate:
+https://www.thingiverse.com/thing:4629296</t>
+  </si>
+  <si>
+    <t>E3D
+LDO</t>
+  </si>
+  <si>
+    <t>EXPERIMENTAL</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +644,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -901,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1011,6 +888,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1105,13 +991,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1149,13 +1035,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1237,13 +1123,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1281,13 +1167,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1325,13 +1211,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1501,13 +1387,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1809,13 +1695,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2117,13 +2003,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2161,13 +2047,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2205,13 +2091,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2337,13 +2223,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2381,13 +2267,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2425,13 +2311,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2469,13 +2355,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2557,13 +2443,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2601,13 +2487,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2645,13 +2531,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2733,13 +2619,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2865,13 +2751,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1088452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2953,50 +2839,6 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1088452</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46" descr="thumbnail_46.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="720725" y="63433325"/>
-          <a:ext cx="1031875" cy="983677"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -3020,7 +2862,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3064,7 +2906,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3108,7 +2950,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3152,7 +2994,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3196,7 +3038,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3240,7 +3082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3284,7 +3126,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3328,7 +3170,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3372,7 +3214,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3393,13 +3235,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>87967</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>116728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1002866</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>985866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3416,7 +3258,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3437,13 +3279,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>122598</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>223798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>971096</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1054977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3460,7 +3302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3481,13 +3323,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>103844</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>224491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>929550</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1061300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3504,7 +3346,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3525,13 +3367,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>202268</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>224678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>965791</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>943869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3548,7 +3390,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3569,13 +3411,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>87967</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>116728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1002866</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>985866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3592,7 +3434,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3601,6 +3443,50 @@
         <a:xfrm>
           <a:off x="2316817" y="35644978"/>
           <a:ext cx="914899" cy="869138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1212850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1143822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="thumbnail_24.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C008020-5D59-4EB1-B20A-4560593090EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="9026525"/>
+          <a:ext cx="1012825" cy="1019997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3961,7 +3847,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="91.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3972,9 +3858,9 @@
     <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
     <col min="10" max="10" width="55.1796875" customWidth="1"/>
     <col min="11" max="11" width="32.08984375" customWidth="1"/>
     <col min="12" max="12" width="68.453125" customWidth="1"/>
@@ -3982,13 +3868,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -3997,19 +3883,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -4020,986 +3906,983 @@
     </row>
     <row r="2" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="I3" s="14">
         <v>2</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I4" s="14">
         <v>3</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>125</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I6" s="14">
         <v>4</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
         <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="K7" s="11" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="K8" s="11" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="10">
         <v>8</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="38"/>
       <c r="I9" s="14">
         <v>2</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>184</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="27" customFormat="1" ht="146" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="10">
+        <v>9</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="14">
-        <v>4</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>188</v>
-      </c>
+      <c r="E10" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="37"/>
     </row>
-    <row r="11" spans="1:12" ht="113" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I11" s="14">
         <v>4</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="10">
+        <v>11</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="I12" s="14">
         <v>4</v>
       </c>
-      <c r="J12" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>192</v>
+      <c r="J12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>153</v>
+        <v>136</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>13</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>189</v>
+        <v>6</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="10">
+        <v>14</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>203</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H15" s="13"/>
       <c r="I15" s="14">
         <v>2</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>168</v>
+      <c r="J15" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="10">
+        <v>15</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="10">
-        <v>15</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>186</v>
+        <v>76</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10">
+        <v>17</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="14">
-        <v>3</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="16"/>
+      <c r="I18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>18</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>203</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H19" s="13"/>
       <c r="I19" s="14">
-        <v>4</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>196</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="10">
+        <v>19</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="16" t="s">
-        <v>197</v>
+        <v>4</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="10">
+        <v>20</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="20" t="s">
-        <v>16</v>
+      <c r="E21" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="14">
-        <v>2</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="10">
+        <v>21</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>203</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H22" s="13"/>
       <c r="I22" s="14">
-        <v>6</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C23" s="10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>163</v>
+      <c r="E23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="G23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="14">
         <v>6</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" s="14">
-        <v>24</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>164</v>
-      </c>
+      <c r="J23" s="21"/>
       <c r="K23" s="11"/>
       <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="C24" s="10">
+        <v>23</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I24" s="14">
-        <v>4</v>
-      </c>
-      <c r="J24" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="K24" s="11"/>
       <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C25" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="12" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I25" s="14">
-        <v>8</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>168</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C26" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="12" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I26" s="14">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>169</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="C27" s="10">
+        <v>26</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="12" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I27" s="14">
-        <v>4</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="C28" s="10">
+        <v>27</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="12" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I28" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="11"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>142</v>
+        <v>76</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="C29" s="10">
-        <v>15</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>180</v>
+        <v>28</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="G29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="14">
         <v>6</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I29" s="25">
+      <c r="J29" s="15"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="10">
+        <v>29</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="25">
         <v>8</v>
       </c>
-      <c r="J29" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I30" s="14">
-        <v>2</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="16"/>
+      <c r="J30" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="10" t="s">
         <v>88</v>
+      </c>
+      <c r="C31" s="10">
+        <v>30</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="12" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I31" s="14">
         <v>2</v>
@@ -5010,29 +4893,29 @@
     </row>
     <row r="32" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="C32" s="10">
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="12" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I32" s="14">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="11"/>
@@ -5040,29 +4923,29 @@
     </row>
     <row r="33" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="C33" s="10">
+        <v>32</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="12" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I33" s="14">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="11"/>
@@ -5070,29 +4953,29 @@
     </row>
     <row r="34" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
+      </c>
+      <c r="C34" s="10">
+        <v>33</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="12" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I34" s="14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="11"/>
@@ -5100,26 +4983,26 @@
     </row>
     <row r="35" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>79</v>
+        <v>88</v>
+      </c>
+      <c r="C35" s="10">
+        <v>34</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="12" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I35" s="14">
         <v>1</v>
@@ -5130,26 +5013,26 @@
     </row>
     <row r="36" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>41</v>
+        <v>88</v>
+      </c>
+      <c r="C36" s="10">
+        <v>35</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I36" s="14">
         <v>8</v>
@@ -5160,26 +5043,26 @@
     </row>
     <row r="37" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="C37" s="10">
+        <v>36</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="12" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I37" s="14">
         <v>8</v>
@@ -5190,26 +5073,26 @@
     </row>
     <row r="38" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C38" s="10">
+        <v>37</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="12" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I38" s="14">
         <v>2</v>
@@ -5220,26 +5103,26 @@
     </row>
     <row r="39" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>24</v>
+        <v>88</v>
+      </c>
+      <c r="C39" s="10">
+        <v>38</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I39" s="14">
         <v>2</v>
@@ -5250,26 +5133,26 @@
     </row>
     <row r="40" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>38</v>
+        <v>88</v>
+      </c>
+      <c r="C40" s="10">
+        <v>39</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I40" s="14">
         <v>2</v>
@@ -5280,26 +5163,26 @@
     </row>
     <row r="41" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="C41" s="10">
+        <v>40</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="12" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I41" s="14">
         <v>6</v>
@@ -5310,26 +5193,26 @@
     </row>
     <row r="42" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>44</v>
+        <v>88</v>
+      </c>
+      <c r="C42" s="10">
+        <v>41</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="12" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I42" s="14">
         <v>25</v>
@@ -5340,29 +5223,29 @@
     </row>
     <row r="43" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="C43" s="10">
+        <v>42</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I43" s="14">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="11"/>
@@ -5370,53 +5253,53 @@
     </row>
     <row r="44" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="C44" s="10">
+        <v>43</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="I44" s="14">
         <v>4</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="K44" s="11"/>
       <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="14">
@@ -5424,29 +5307,29 @@
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="C46" s="10">
+        <v>45</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="12" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="14">
@@ -5454,29 +5337,29 @@
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>117</v>
+        <v>15</v>
+      </c>
+      <c r="C47" s="10">
+        <v>46</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="12" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="14">
@@ -5484,29 +5367,29 @@
       </c>
       <c r="J47" s="15"/>
       <c r="K47" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="C48" s="10">
+        <v>47</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="14">
@@ -5514,29 +5397,29 @@
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>106</v>
+        <v>15</v>
+      </c>
+      <c r="C49" s="10">
+        <v>48</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="12" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="14">
@@ -5544,29 +5427,29 @@
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L49" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>123</v>
+        <v>15</v>
+      </c>
+      <c r="C50" s="10">
+        <v>49</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="12" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="14">
@@ -5574,29 +5457,29 @@
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L50" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>126</v>
+        <v>15</v>
+      </c>
+      <c r="C51" s="10">
+        <v>50</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="12" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="14">
@@ -5604,29 +5487,29 @@
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="C52" s="10">
+        <v>51</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="12" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="14">
@@ -5634,29 +5517,29 @@
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L52" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="C53" s="10">
+        <v>52</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="12" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="14">
@@ -5664,29 +5547,29 @@
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="C54" s="10">
+        <v>53</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="12" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="14">
@@ -5694,29 +5577,29 @@
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L54" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>121</v>
+        <v>15</v>
+      </c>
+      <c r="C55" s="10">
+        <v>54</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="20" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="30">
@@ -5724,29 +5607,29 @@
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>114</v>
+        <v>15</v>
+      </c>
+      <c r="C56" s="10">
+        <v>55</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="20" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="30">
@@ -5754,25 +5637,25 @@
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L56" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>116</v>
+        <v>15</v>
+      </c>
+      <c r="C57" s="10">
+        <v>56</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="20" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13"/>
@@ -5782,31 +5665,31 @@
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>111</v>
+        <v>15</v>
+      </c>
+      <c r="C58" s="10">
+        <v>57</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="12" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="14">
@@ -5814,38 +5697,37 @@
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="11" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L58" s="31" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L26" r:id="rId1" xr:uid="{B8FDF678-413C-430F-8C9C-A28FB91E0EF3}"/>
-    <hyperlink ref="L9" r:id="rId2" xr:uid="{099FADD8-A0FA-4B80-85A4-ABEEA26FDCC5}"/>
-    <hyperlink ref="L45" r:id="rId3" xr:uid="{B5422098-BDE4-484B-A09D-4A7B905A629B}"/>
-    <hyperlink ref="L46:L58" r:id="rId4" display="https://www.thingiverse.com/thing:4629715" xr:uid="{2B096A3F-C3A3-425B-8B92-8A62D985B06B}"/>
-    <hyperlink ref="J13" r:id="rId5" display="https://e3d-online.dozuki.com/Document/awQSBj4am1DMESpY/Gates_T_Idler_9.pdf" xr:uid="{A2171C8E-8832-4A33-BA11-63CB257C1CD9}"/>
-    <hyperlink ref="J14" r:id="rId6" display="https://e3d-online.dozuki.com/Document/Nld1XpHUpijTF4Gy/Gates_Pulley_20T_9.pdf" xr:uid="{D27B518F-9140-4B5A-8827-9A58C0268BFA}"/>
-    <hyperlink ref="J12" r:id="rId7" display="https://e3d-online.dozuki.com/Document/xOq6j12tQyJ35Q5d/Gates_S_Idler_9.pdf" xr:uid="{925AECCF-97D9-4FBF-9CDD-18322B0185F2}"/>
-    <hyperlink ref="L12" r:id="rId8" xr:uid="{5CC291BE-FC72-48BE-8D6F-83581DD61989}"/>
-    <hyperlink ref="L13" r:id="rId9" xr:uid="{3A4D1415-F6B1-4E03-A50F-93FD113B11AB}"/>
-    <hyperlink ref="L14" r:id="rId10" xr:uid="{44139601-C453-4CBC-AB10-6F43C431610D}"/>
-    <hyperlink ref="L19" r:id="rId11" xr:uid="{8EDFBFBA-1E2D-4F38-883B-784601AE9EEB}"/>
-    <hyperlink ref="L21" r:id="rId12" xr:uid="{B559E311-A0FB-41ED-A8D8-649AADB8A323}"/>
-    <hyperlink ref="L7" r:id="rId13" xr:uid="{2A20D912-3199-48E3-B41F-0CFD3FAAB28E}"/>
-    <hyperlink ref="L8" r:id="rId14" xr:uid="{4A387C78-B4D3-4602-AE6B-3F3C7D33B79A}"/>
-    <hyperlink ref="L6" r:id="rId15" xr:uid="{304ED1CD-87E5-42A8-8049-345783B3FD84}"/>
+    <hyperlink ref="L27" r:id="rId1" xr:uid="{B8FDF678-413C-430F-8C9C-A28FB91E0EF3}"/>
+    <hyperlink ref="L45" r:id="rId2" xr:uid="{B5422098-BDE4-484B-A09D-4A7B905A629B}"/>
+    <hyperlink ref="L46:L58" r:id="rId3" display="https://www.thingiverse.com/thing:4629715" xr:uid="{2B096A3F-C3A3-425B-8B92-8A62D985B06B}"/>
+    <hyperlink ref="J14" r:id="rId4" display="https://e3d-online.dozuki.com/Document/awQSBj4am1DMESpY/Gates_T_Idler_9.pdf" xr:uid="{A2171C8E-8832-4A33-BA11-63CB257C1CD9}"/>
+    <hyperlink ref="J15" r:id="rId5" display="https://e3d-online.dozuki.com/Document/Nld1XpHUpijTF4Gy/Gates_Pulley_20T_9.pdf" xr:uid="{D27B518F-9140-4B5A-8827-9A58C0268BFA}"/>
+    <hyperlink ref="J13" r:id="rId6" display="https://e3d-online.dozuki.com/Document/xOq6j12tQyJ35Q5d/Gates_S_Idler_9.pdf" xr:uid="{925AECCF-97D9-4FBF-9CDD-18322B0185F2}"/>
+    <hyperlink ref="L13" r:id="rId7" xr:uid="{5CC291BE-FC72-48BE-8D6F-83581DD61989}"/>
+    <hyperlink ref="L14" r:id="rId8" xr:uid="{3A4D1415-F6B1-4E03-A50F-93FD113B11AB}"/>
+    <hyperlink ref="L15" r:id="rId9" xr:uid="{44139601-C453-4CBC-AB10-6F43C431610D}"/>
+    <hyperlink ref="L20" r:id="rId10" xr:uid="{8EDFBFBA-1E2D-4F38-883B-784601AE9EEB}"/>
+    <hyperlink ref="L22" r:id="rId11" xr:uid="{B559E311-A0FB-41ED-A8D8-649AADB8A323}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{2A20D912-3199-48E3-B41F-0CFD3FAAB28E}"/>
+    <hyperlink ref="L8" r:id="rId13" xr:uid="{4A387C78-B4D3-4602-AE6B-3F3C7D33B79A}"/>
+    <hyperlink ref="L6" r:id="rId14" xr:uid="{304ED1CD-87E5-42A8-8049-345783B3FD84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId15"/>
   <webPublishItems count="1">
     <webPublishItem id="2337" divId="BOM_XYHD9_2337" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XYHD9.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XYHD9.xlsx
+++ b/bom/BOM_XYHD9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269ECD3A-D62D-4280-BA93-CDE975CD40B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791C58D6-7F8F-46A3-BECD-9B3E055844A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Buy</t>
-  </si>
-  <si>
-    <t>CPM-_ _ _ _ - 2321_-Q_</t>
   </si>
   <si>
     <t>Motor, Servo - Nema 23</t>
@@ -533,6 +530,12 @@
   </si>
   <si>
     <t>Option 2</t>
+  </si>
+  <si>
+    <t>CPM-SDSK-2321S-EQN</t>
+  </si>
+  <si>
+    <t>https://www.teknic.com/model-info/CPM-SDSK-2321S-EQN/?model_voltage=75</t>
   </si>
 </sst>
 </file>
@@ -3846,8 +3849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="91.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3868,13 +3871,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -3883,19 +3886,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -3906,7 +3909,7 @@
     </row>
     <row r="2" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -3916,27 +3919,27 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
@@ -3946,33 +3949,33 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" s="14">
         <v>2</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -3982,33 +3985,33 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4" s="14">
         <v>3</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
@@ -4018,33 +4021,33 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>5</v>
@@ -4054,33 +4057,33 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I6" s="14">
         <v>4</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -4090,31 +4093,31 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>5</v>
@@ -4124,92 +4127,94 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="10">
         <v>8</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="G9" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="14">
         <v>2</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="31"/>
+        <v>128</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="27" customFormat="1" ht="146" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="10">
         <v>9</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>5</v>
@@ -4219,33 +4224,33 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" s="14">
         <v>4</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>5</v>
@@ -4255,33 +4260,33 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="G12" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12" s="14">
         <v>4</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K12" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>5</v>
@@ -4291,10 +4296,10 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>5</v>
@@ -4304,18 +4309,18 @@
         <v>4</v>
       </c>
       <c r="J13" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>5</v>
@@ -4325,10 +4330,10 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>5</v>
@@ -4338,18 +4343,18 @@
         <v>6</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>5</v>
@@ -4359,10 +4364,10 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>5</v>
@@ -4372,18 +4377,18 @@
         <v>2</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>5</v>
@@ -4393,33 +4398,33 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="G16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" s="14">
         <v>2</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>5</v>
@@ -4429,27 +4434,27 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>5</v>
@@ -4459,27 +4464,27 @@
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>5</v>
@@ -4489,10 +4494,10 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>5</v>
@@ -4502,14 +4507,14 @@
         <v>3</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>5</v>
@@ -4519,33 +4524,33 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="G20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20" s="14">
         <v>4</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="31" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>5</v>
@@ -4555,10 +4560,10 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>5</v>
@@ -4570,12 +4575,12 @@
       <c r="J21" s="21"/>
       <c r="K21" s="11"/>
       <c r="L21" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>5</v>
@@ -4585,10 +4590,10 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>5</v>
@@ -4598,37 +4603,37 @@
         <v>2</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="10">
         <v>22</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="G23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I23" s="14">
         <v>6</v>
@@ -4639,58 +4644,58 @@
     </row>
     <row r="24" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="10">
         <v>23</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="G24" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I24" s="14">
         <v>24</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="10">
         <v>24</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="G25" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I25" s="14">
         <v>4</v>
@@ -4701,96 +4706,96 @@
     </row>
     <row r="26" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="10">
         <v>25</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="G26" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I26" s="14">
         <v>8</v>
       </c>
       <c r="J26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="10">
         <v>26</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="G27" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I27" s="14">
         <v>24</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="10">
         <v>27</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="G28" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I28" s="14">
         <v>4</v>
@@ -4801,26 +4806,26 @@
     </row>
     <row r="29" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="10">
         <v>28</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="G29" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I29" s="14">
         <v>6</v>
@@ -4831,58 +4836,58 @@
     </row>
     <row r="30" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="10">
         <v>29</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>126</v>
-      </c>
       <c r="G30" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I30" s="25">
         <v>8</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="10">
         <v>30</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="G31" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I31" s="14">
         <v>2</v>
@@ -4893,26 +4898,26 @@
     </row>
     <row r="32" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="10">
         <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="G32" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I32" s="14">
         <v>2</v>
@@ -4923,26 +4928,26 @@
     </row>
     <row r="33" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="10">
         <v>32</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="G33" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I33" s="14">
         <v>18</v>
@@ -4953,26 +4958,26 @@
     </row>
     <row r="34" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="10">
         <v>33</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="G34" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I34" s="14">
         <v>5</v>
@@ -4983,26 +4988,26 @@
     </row>
     <row r="35" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="10">
         <v>34</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="G35" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I35" s="14">
         <v>1</v>
@@ -5013,26 +5018,26 @@
     </row>
     <row r="36" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="10">
         <v>35</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="G36" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I36" s="14">
         <v>8</v>
@@ -5043,26 +5048,26 @@
     </row>
     <row r="37" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="10">
         <v>36</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="G37" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37" s="14">
         <v>8</v>
@@ -5073,26 +5078,26 @@
     </row>
     <row r="38" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="10">
         <v>37</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="G38" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I38" s="14">
         <v>2</v>
@@ -5103,26 +5108,26 @@
     </row>
     <row r="39" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="10">
         <v>38</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="G39" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I39" s="14">
         <v>2</v>
@@ -5133,26 +5138,26 @@
     </row>
     <row r="40" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="10">
         <v>39</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="G40" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I40" s="14">
         <v>2</v>
@@ -5163,26 +5168,26 @@
     </row>
     <row r="41" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="10">
         <v>40</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G41" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I41" s="14">
         <v>6</v>
@@ -5193,26 +5198,26 @@
     </row>
     <row r="42" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="10">
         <v>41</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="G42" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I42" s="14">
         <v>25</v>
@@ -5223,26 +5228,26 @@
     </row>
     <row r="43" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="10">
         <v>42</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="G43" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I43" s="14">
         <v>25</v>
@@ -5253,53 +5258,53 @@
     </row>
     <row r="44" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="10">
         <v>43</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="G44" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I44" s="14">
         <v>4</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K44" s="11"/>
       <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="10">
         <v>44</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="14">
@@ -5307,29 +5312,29 @@
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="10">
         <v>45</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="14">
@@ -5337,29 +5342,29 @@
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="10">
         <v>46</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="14">
@@ -5367,29 +5372,29 @@
       </c>
       <c r="J47" s="15"/>
       <c r="K47" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="10">
         <v>47</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="14">
@@ -5397,29 +5402,29 @@
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="10">
         <v>48</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="14">
@@ -5427,29 +5432,29 @@
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L49" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="10">
         <v>49</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="14">
@@ -5457,29 +5462,29 @@
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L50" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="14">
@@ -5487,29 +5492,29 @@
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="10">
         <v>51</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="14">
@@ -5517,29 +5522,29 @@
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L52" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="10">
         <v>52</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="14">
@@ -5547,29 +5552,29 @@
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="10">
         <v>53</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="14">
@@ -5577,29 +5582,29 @@
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L54" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="10">
         <v>54</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="30">
@@ -5607,29 +5612,29 @@
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="10">
         <v>55</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="30">
@@ -5637,25 +5642,25 @@
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L56" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="27" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="10">
         <v>56</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13"/>
@@ -5665,31 +5670,31 @@
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="10">
         <v>57</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="G58" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="14">
@@ -5697,10 +5702,10 @@
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L58" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/bom/BOM_XYHD9.xlsx
+++ b/bom/BOM_XYHD9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791C58D6-7F8F-46A3-BECD-9B3E055844A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634389B-39C4-47CB-9DB4-AE586D5B3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="38380" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="158">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -455,10 +455,6 @@
 2: AliExpress</t>
   </si>
   <si>
-    <t>1: https://www.amazon.ca/gp/product/B01MTKNWZB/ref=ppx_yo_dt_b_asin_image_o03_s00?ie=UTF8&amp;psc=1
-2: https://www.aliexpress.com/item/4000473863693.html?spm=a2g0s.9042311.0.0.46214c4dj2VePT</t>
-  </si>
-  <si>
     <t>Specs: https://e3d-online.dozuki.com/Document/Nld1XpHUpijTF4Gy/Gates_Pulley_20T_9.pdf</t>
   </si>
   <si>
@@ -468,35 +464,11 @@
     <t>Specs: https://e3d-online.dozuki.com/Document/xOq6j12tQyJ35Q5d/Gates_S_Idler_9.pdf</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/33023133633.html?spm=a2g0s.9042311.0.0.27424c4doxVFvb</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/33023279793.html?spm=a2g0s.9042311.0.0.27424c4doxVFvb</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/33002873710.html?spm=a2g0s.9042311.0.0.79334c4dbGMssZ</t>
-  </si>
-  <si>
     <t>RDC Official Store - AliExpress</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/32856649040.html?spm=2114.12010612.8148356.71.2e8e17b83q00jq</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/33008007487.html?spm=a2g0s.9042311.0.0.27424c4dyaVcbb</t>
   </si>
   <si>
     <t>GATES-LL-2GT gear synchronous belt, 9mm wide
 *Length defined by Frame Calculator: https://miragec79.github.io/HevORT/framecalculator.html</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/32952396111.html?spm=a2g0s.9042311.0.0.27424c4dlCkvdt</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/32856629143.html?spm=a2g0s.9042311.0.0.27424c4djK3sna</t>
   </si>
   <si>
     <t>Included in 
@@ -536,6 +508,38 @@
   </si>
   <si>
     <t>https://www.teknic.com/model-info/CPM-SDSK-2321S-EQN/?model_voltage=75</t>
+  </si>
+  <si>
+    <t>1: https://www.amazon.ca/gp/product/B01MTKNWZB/ref=ppx_yo_dt_b_asin_image_o03_s00?ie=UTF8&amp;psc=1
+2: https://s.click.aliexpress.com/e/_970snQ</t>
+  </si>
+  <si>
+    <t>1: https://www.amazon.ca/gp/product/B01MTKNWZB/ref=ppx_yo_dt_b_asin_image_o03_s00?ie=UTF8&amp;psc=1 
+2: https://s.click.aliexpress.com/e/_970snQ</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_9IELgc</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_9g2k0g</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_AWaruG</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_AZrL5i</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_98uSJS</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_9H0xhI</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_A5gT0U</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_AKV732</t>
   </si>
 </sst>
 </file>
@@ -3849,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="91.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3892,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>79</v>
@@ -3958,7 +3962,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I3" s="14">
         <v>2</v>
@@ -3970,7 +3974,7 @@
         <v>131</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="109" customHeight="1" x14ac:dyDescent="0.35">
@@ -3994,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I4" s="14">
         <v>3</v>
@@ -4006,7 +4010,7 @@
         <v>131</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4030,7 +4034,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
@@ -4042,7 +4046,7 @@
         <v>131</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4066,7 +4070,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I6" s="14">
         <v>4</v>
@@ -4078,7 +4082,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4106,13 +4110,13 @@
         <v>89</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4140,13 +4144,13 @@
         <v>89</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4154,20 +4158,20 @@
         <v>75</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C9" s="10">
         <v>8</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="14">
@@ -4180,7 +4184,7 @@
         <v>128</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="27" customFormat="1" ht="146" customHeight="1" x14ac:dyDescent="0.35">
@@ -4188,27 +4192,27 @@
         <v>75</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C10" s="10">
         <v>9</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="19" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K10" s="37"/>
     </row>
@@ -4233,7 +4237,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I11" s="14">
         <v>4</v>
@@ -4245,7 +4249,7 @@
         <v>131</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="113" customHeight="1" x14ac:dyDescent="0.35">
@@ -4269,7 +4273,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I12" s="14">
         <v>4</v>
@@ -4281,7 +4285,7 @@
         <v>131</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4309,13 +4313,13 @@
         <v>4</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>98</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4343,13 +4347,13 @@
         <v>6</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4377,13 +4381,13 @@
         <v>2</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4407,7 +4411,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I16" s="14">
         <v>2</v>
@@ -4419,7 +4423,7 @@
         <v>113</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4533,7 +4537,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I20" s="14">
         <v>4</v>
@@ -4542,10 +4546,10 @@
         <v>81</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4574,8 +4578,8 @@
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="16" t="s">
-        <v>141</v>
+      <c r="L21" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4609,7 +4613,7 @@
         <v>113</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4633,7 +4637,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I23" s="14">
         <v>6</v>
@@ -4663,7 +4667,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I24" s="14">
         <v>24</v>
@@ -4695,7 +4699,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I25" s="14">
         <v>4</v>
@@ -4725,7 +4729,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I26" s="14">
         <v>8</v>
@@ -4759,7 +4763,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I27" s="14">
         <v>24</v>
@@ -4795,7 +4799,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I28" s="14">
         <v>4</v>
@@ -4825,7 +4829,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I29" s="14">
         <v>6</v>
@@ -4855,7 +4859,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I30" s="25">
         <v>8</v>
@@ -4887,7 +4891,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I31" s="14">
         <v>2</v>
@@ -4917,7 +4921,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I32" s="14">
         <v>2</v>
@@ -4947,7 +4951,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I33" s="14">
         <v>18</v>
@@ -4977,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I34" s="14">
         <v>5</v>
@@ -5007,7 +5011,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I35" s="14">
         <v>1</v>
@@ -5037,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I36" s="14">
         <v>8</v>
@@ -5067,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I37" s="14">
         <v>8</v>
@@ -5097,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I38" s="14">
         <v>2</v>
@@ -5127,7 +5131,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I39" s="14">
         <v>2</v>
@@ -5157,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I40" s="14">
         <v>2</v>
@@ -5187,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I41" s="14">
         <v>6</v>
@@ -5217,7 +5221,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I42" s="14">
         <v>25</v>
@@ -5247,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I43" s="14">
         <v>25</v>
@@ -5277,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I44" s="14">
         <v>4</v>
@@ -5717,22 +5721,24 @@
     <hyperlink ref="J14" r:id="rId4" display="https://e3d-online.dozuki.com/Document/awQSBj4am1DMESpY/Gates_T_Idler_9.pdf" xr:uid="{A2171C8E-8832-4A33-BA11-63CB257C1CD9}"/>
     <hyperlink ref="J15" r:id="rId5" display="https://e3d-online.dozuki.com/Document/Nld1XpHUpijTF4Gy/Gates_Pulley_20T_9.pdf" xr:uid="{D27B518F-9140-4B5A-8827-9A58C0268BFA}"/>
     <hyperlink ref="J13" r:id="rId6" display="https://e3d-online.dozuki.com/Document/xOq6j12tQyJ35Q5d/Gates_S_Idler_9.pdf" xr:uid="{925AECCF-97D9-4FBF-9CDD-18322B0185F2}"/>
-    <hyperlink ref="L13" r:id="rId7" xr:uid="{5CC291BE-FC72-48BE-8D6F-83581DD61989}"/>
-    <hyperlink ref="L14" r:id="rId8" xr:uid="{3A4D1415-F6B1-4E03-A50F-93FD113B11AB}"/>
-    <hyperlink ref="L15" r:id="rId9" xr:uid="{44139601-C453-4CBC-AB10-6F43C431610D}"/>
-    <hyperlink ref="L20" r:id="rId10" xr:uid="{8EDFBFBA-1E2D-4F38-883B-784601AE9EEB}"/>
-    <hyperlink ref="L22" r:id="rId11" xr:uid="{B559E311-A0FB-41ED-A8D8-649AADB8A323}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{2A20D912-3199-48E3-B41F-0CFD3FAAB28E}"/>
-    <hyperlink ref="L8" r:id="rId13" xr:uid="{4A387C78-B4D3-4602-AE6B-3F3C7D33B79A}"/>
-    <hyperlink ref="L6" r:id="rId14" xr:uid="{304ED1CD-87E5-42A8-8049-345783B3FD84}"/>
+    <hyperlink ref="L6" r:id="rId7" xr:uid="{F694FFB6-34B5-4FE5-9B82-0B586E5D1B2C}"/>
+    <hyperlink ref="L7" r:id="rId8" xr:uid="{1D045C5F-E38E-4A67-9208-FFCB2A1CC84C}"/>
+    <hyperlink ref="L8" r:id="rId9" xr:uid="{B5A3B29F-A321-48BC-BD92-0E410A53D429}"/>
+    <hyperlink ref="L13" r:id="rId10" xr:uid="{2EF1AFC8-28CC-4DE8-8FCD-57BBD176032A}"/>
+    <hyperlink ref="L14" r:id="rId11" xr:uid="{5EF7F44F-B3AC-4A20-A90C-D08DB3FEEA9A}"/>
+    <hyperlink ref="L15" r:id="rId12" xr:uid="{4C777664-47C1-4426-96DA-6492D4544349}"/>
+    <hyperlink ref="L16" r:id="rId13" xr:uid="{4D21ED8B-C1FF-47FF-BB54-D5C49CF2607B}"/>
+    <hyperlink ref="L20" r:id="rId14" xr:uid="{04854A72-CD0C-443E-ABAC-53D48313FEEF}"/>
+    <hyperlink ref="L22" r:id="rId15" xr:uid="{174C7174-3703-4F81-9A5E-A5EAA997A52D}"/>
+    <hyperlink ref="L21" r:id="rId16" xr:uid="{0C9C440D-17A1-4132-818F-C51F4AB34B89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId17"/>
   <webPublishItems count="1">
     <webPublishItem id="2337" divId="BOM_XYHD9_2337" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XYHD9.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>